--- a/PAI/Control/cotizacionPickit3.xlsx
+++ b/PAI/Control/cotizacionPickit3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Semestre-10\PAI\Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8CD9D36-AF94-426D-ACC1-454F8FD32247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5137B59-EC35-40D3-B2AE-DF002971B7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F9804FA-6341-410F-AEA2-4EB2356C3F61}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>https://articulo.mercadolibre.com.co/MCO-509526221-programador-generico-pickit-3-incluye-base-40-pines-_JM#position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=afb8411e-33ab-4525-8dcb-109fe5910dc1</t>
   </si>
@@ -44,21 +44,12 @@
     <t>https://www.zamux.co/programador-pickit-3</t>
   </si>
   <si>
-    <t>Programador</t>
-  </si>
-  <si>
-    <t>PIC18F4550</t>
-  </si>
-  <si>
     <t>https://articulo.mercadolibre.com.co/MCO-585378120-pic18f4550-microcontrolador-dip40-pic-mcu-_JM#position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=79c265a9-4043-4574-9fe1-8b89c951d24b</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Adaptador</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.vistronica.com/componentes-activos/microcontroladores-/programador-pickit-3-mplab-detail.html </t>
   </si>
   <si>
@@ -66,6 +57,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.sigmaelectronica.net/producto/pic18f4550-ip/ </t>
+  </si>
+  <si>
+    <t>Tecnópura (Chía)</t>
+  </si>
+  <si>
+    <t>Programador (sin envío)</t>
+  </si>
+  <si>
+    <t>Adaptador (sin envío)</t>
+  </si>
+  <si>
+    <t>PIC18F4550 (sin envío)</t>
   </si>
 </sst>
 </file>
@@ -75,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,21 +101,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -121,28 +151,39 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -459,115 +500,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69288751-B5C7-4A60-9BE8-1CC0511B0BD8}">
-  <dimension ref="C1:G8"/>
+  <dimension ref="C1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="4">
+        <v>256470</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="4">
+        <v>168900</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="4">
+        <v>208250</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>16345</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="10">
+        <v>215000</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="8">
+        <v>69500</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="8">
+        <v>89250</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="6">
-        <v>256470</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="6">
-        <v>168900</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="6">
-        <v>208250</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="12">
+        <v>68000</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6">
-        <v>16345</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="5">
-        <v>69500</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="5">
-        <v>89250</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" location="position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=79c265a9-4043-4574-9fe1-8b89c951d24b" xr:uid="{8BEA24A2-6878-420F-B9E1-0A826412671D}"/>
+    <hyperlink ref="D8" r:id="rId1" location="position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=79c265a9-4043-4574-9fe1-8b89c951d24b" xr:uid="{8BEA24A2-6878-420F-B9E1-0A826412671D}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{2EB055A5-CD21-45BC-B300-A9C515917E33}"/>
     <hyperlink ref="D2" r:id="rId3" location="position=4&amp;search_layout=stack&amp;type=item&amp;tracking_id=afb8411e-33ab-4525-8dcb-109fe5910dc1" xr:uid="{09D84A2C-2F47-4307-B107-0F2398BF6B1A}"/>
     <hyperlink ref="D4" r:id="rId4" xr:uid="{7881485C-3665-4907-9984-B967032CE532}"/>
     <hyperlink ref="F4" r:id="rId5" xr:uid="{EB0320D6-BCD9-42ED-BFD0-40896364A575}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{F7CA54A2-2492-49F2-B186-0B00B0DD4268}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{F7CA54A2-2492-49F2-B186-0B00B0DD4268}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>